--- a/Testdata/TC_138.xlsx
+++ b/Testdata/TC_138.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>g0AAAB+LCAAAAAAAAAPtnOtvG1UWwP+VUaSVQKozM3bixNbtID/y8DZOQuw2LV+q8cxNMpvxjHceSf2t1QpaWApiKSBe210QsIsoBakLpQnd/wXVbvqp/8Kee+887XHqScuKIqMKcs/jPs6995zfTDOgly61dW4PW7ZmGqenxGlhisOGYqqasX16ynW2MmJ+6iUJLVxSsL4uW3IbO2DMgZdhFy/Z2umpHcfpFHl+f39/ej83bVrbfFYQRP58faWh7OC2nNEM25ENBU8FXuqTvaYkVFHbdezIquzIzPP0VK1Rm65gTamCrC4b8ja2psuurRnYthcMR3M0bBNPC8sOrlTr59jCpOx0flpE/JA8tCy7mq4yu5glk3t2MCxuam0sZQVxPiOKmWyhKcwVxdlirjA9k8u94jsGhmhFtp0GtvY0hQoajtzuUHdRzBaEOXE2V0B8ohH0FQZAQmu6uoH3NBurFazrdqqI8N4GlhQHVp0umALiI75eRyefwpIld3aamqPjtO6LpoUVCNSJxl7F+2uWF79mZwW0zR3NcrpVuZu6r7M2ttY6JBrpXCVUNQ2npGPLOduBTcUq7DkoJMdyMeJHKEOnqmYr8LNmuFiVtmTdjjrFlGjTtHbtjqzgVbiwPOlj39BNWYWT5Wi2oynhoEMKtG6ZHegRBi+buroIvXrGCYqg55oBISbDlk1zN5xdkhLRM0BPA+xpW3Z88yE5auyY+2uG3m24LVuxtBZWq2XfOlGHyM3zvCuu7ZhtmEUoQkwWkagqX6/zXfgH7tugElWxorVlfV2HUNpSDvqKCVDJdcwtzamYuts2bH9mA1K0Cetq4kvBOoM2WoMtNkjoTaNm+PYs2ImquMOGuR+MOaygoYiIS7bib/qwYtC4CjJ/E4c1dF/IKhc1HcpBdEci0vjZaOxg7CQeDKZBJPMtkgIjlburbrsFl6wFN22PjmojPtQjOK1w4mFekgBFI0P/NAWhSP/APAI1WjDU0Xa+EsFwkbEkcQbxAyIEa9LLumzsgnRTc3ZWS/5aEjSIRWCk/bAOwf3t6HKXioMoRWWoZii6q2KWFmrGFj2iZG5sU0eq0ZBoBW66hGSj2+x2IA3bWtGBH05PQWEu2o4FpX9KUkzXcKwuyR+I90yf5GO7LYMOIOtj+2xZ+M8uEEd30TWUiqmOP5rKonPW0JzxZ2i6FkuK47vQ6JH86NpVTDINTf1j+ytp1mRbqczbBm6bhqaMH20IMpm9eoKF2P6tGtsDs/s1tr0O1Z0VP3LXx3azABeh3KUapmTbpqLRw+pdDzXiz4+4MlW8Jbs6oJoDhXY7yL2DYlSydwdtoiJ01tL9DCgRELaBhBW1Pa0AQhDam1bMNhHwAKCbDcRH7QkHKXjB2F6RjW0XSCPIK4PyIP+SKtm0ZMMmywnAYiAVJxshP08x4JFY8lpz6UFgycsELeIH7FATtzumJet1CIy26B07j5oASOqys+O1oLbpWPGDzIeugVd8Zv7En2RGixRbBrnwXpocEFIjshbG3KFNKENklXW4lnpF1rWWxbKqX8qTdLBhISL6+ZcsLiUu+nsAz11Qfc/gLoHxsOHJ6ZEVfQU7wCSRSo2NmfnsTIE8YNA2oiteskzb5qpmGxPc44DpVFdxuBeWqusvQtmjQfEKzxj2UUu06OdyOtzLMKe4JG4ATLGtQakYNgw0oYP0sgvZB1t6N2LLVrRiKmDa+/jn3muvPrxx88G9r/qXD3qXDx8fXoM5Pj58na2KmaGm3NIxnU2zPD8v5KDUhyJEosdTAiaLpLILFyj4Bm3kPajRRmWhVllaKdOEEQh9d1YzePIM2DXdsNlg06cD0T3j/a1mJlLTT0BeO6aN1CCJPJPt4bh1VD/KkcXi4cFXDw9ujfT2AhbClFgoFDJC7omsBU+3YkbMjmCtlViSJ8YzGWE2k81GjAds0AbL8EGcaqqUE4WCKALVBclaDc5tktGgyuupKW/zA35MVGH8ExyBaNtX0lPfhHsRqNk9iDRYEPv/+evR7fdiVl50PUm8F5gc5RQyGO83aNerG02usXZ2o7LANRca5JyEuogd6/wYY2/04CZFD01w005xUMChYHFTddk6xf3RNfAproE7pzh4CpqK3MPYkUuSsuGequPBGUNacjssz0QcQmmCZZhwkjwSkg7V0dgmZZ9Qm+DhJaVbnyc5eGuphgArbdTLXMsIjimVoZiGiSJ6b4jrVx7c+++De/f6373Tu3sl1oM3TvAyAI49XK5oM7gFkAG9+jIgQZsNGs9d4WKknnhC8uC0bmqGY0uzWfrM5LUQuIqkN/pfVGtDiaMd03iBfECClmV74ZLj3XNpFfFxAcyzI0N1NcNnzUDAUnoY10ef/r3/8Z3++98dXf2698a/em++//Dg5tG3/2SXsP/ed/3r33pJf7Au0LmQJ1gGfRx9K6Jw5HJypFZzv1x+lzNMhwPE4FyaoH65/GGkMzJRCiNhz4BwwUTiUxgyjToTPy4ylWAOMb/AhRX8CqloucDCq2lmR1PCQV7JkK7I7aOKF2rNjGtjzgR6gno+YBw6j+vnubAKuz4nZMWsp2WzIUtoyXYk9Eu62ZJ1zlfQFw4DJjGv4x1CWzre0spaubQSmrBJrFkqtsgxZD8gHyFJhanZfss/ahEJaAH0FFcn74iGzIZVQc+RTMZ7L1u2SipJgsmvJmIWqOJaFoMjw3tV33A7AL/+i7nRevqyMsK7q4xNowQctmvVuB7aES3UxbiaCKiepiZPxdJUzSbvdRi+rpLQhE3QxV5wQji8t/EMvPY02BKe5J0FyzKtxOQTanyzOpAzZBQ+jHhgQ/eUUbYa7pUv8BPes6HtWVGYi9F2pVzkSuoe+esPu8itw0LZ25Fhzh5leQxhL49L2EOGSYTdwG1NNgxX1kdCdqX8+PCjozs/9r+53zv4of/Jzd61fz986yoIH9z9GmrQhLSfFWnPA2bnxyHt3P+FtIXZwpNJ2zOakPa4pL0s61uZLpaBKwMiBhg+KV+foLvRVL2cmqoTPY6l6hEZZxywvv5G76c7Y7L1+pkNrp3I1r5mBFs//PD+g7tXez/e6d2813//du/TL3vXP+vfvvGUkC2OhmzxYqSMDEN2fgLZE8h+viBbnED28wLZA8nnNwvZ8BQwH4PsF6qVF5dNuDRnyL82sCNrOlc2DZWAtAWwWOTqmlrkls9wK5qxy5WKnDBHUUgQCkUuN50X/pCE5M+m32MAvjo7JsAPGSYBfBWmN4rcHx9e6135pH/rM5a1Hx++/ujLD/t3bz/6+IfejW97l+/1rt0lGH/wY/8fh5Tnbz364A59i/6RZ/nu/f5bX5SgHa4RGpHgTbj/abkfYjqbEYDSZ57E/UKB7IGQ/9W5f34c7p+fcH8a7qcX9RQ3NcuZ4a+YnAD40/QzmvSrqUk/0eNY0h9MTWMgfv+DL8bk++Uz1SS4p+IRZA/5rPfqX56S47OjOT57MVKphjleFPLzE5KfkPxzRfLZCck/LyQ/kH5+syQ/K5C/NoyQ/OZ6jaI1pLEuV7Igm+jkbfiiaQJmL54rcufwdpFbsjA2uHUs20nUnr6PYwh9Mz8moQ8ZJhH6Jsa7IxG9//pPvbffYQTef/MqpD2AdlgMsDoF8oOjL6/03nut9+4VwuSf32Q/LJ4jr+RvfHP09idE/Onfjr5/bYLjzxDHRWGc1/DkHXxGnPm1f+EllxvjF16Y0QTHx8Vxdiu5Fob7apCKLTtcA86Gpcrd9FCevrfRaL6ZGs0TPY5F86GcNAabP7r8/ZhsDldohrwqmD0t0jo9ROkDBiN4fXQ36bE9NxrbcxcjZSkB2+cm798n1P58UXvud0Dt3ti/e2wfSD+/CrZ7P7DvGbwVmlWsYyf1B5m+d93cO7EvbH5a15q9pqteMNP9Qn0QlrCD6Fep5KCknUzJsgCjyAdsqT8jJX9lUEu3eknZyuYL87NzW/MFoZXLygVZaBW2WnheKAiFLNx11in5voJ00QbWJl8npBsE4DHuHn5JsiEb2yl7YwGmjuRrC4gUiTM5wpplO+dJnfR+YpILgeQCY+fz0gwD5POsfUHK5+eYBCz4aPd8bJ5+SnHYJ8umvqK1tZTfYAh+2ol3Ahvf6TC6TLuFUPJW8SVg30gPkKxbf4Jyxj5aStMbu0eQ4wN/8qGgrW3vOKnPlqJkW4KSzczkcD4zI8tzGRmLW/AAlJvLKzNzM7n8LPnM0OscEpqG91MOwvsbFv6vBKT/AU9rdtGDQAAA</t>
+          <t>8UEAAB+LCAAAAAAAAAPtnGtvE1cagP/KKNJKIOHMjJ2Y2DpM5UsuXuIkjQ2BfkHjmZNkNuMZ71wS/A20aoFuadUtbdXbstuql61K6UpsS0m2+18qbMIn/sK+55y52uPgCXQFK1cp+LyXcz/v+8xxBvTK5bbO7WLL1kzjzJQ4LUxx2FBMVTO2zky5zmZGzE+9IqH5ywrW12RLbmMHjDnwMuziZVs7M7XtOJ0iz+/t7U3v5aZNa4vPCoLIX6gvN5Rt3JYzmmE7sqHgqcBLfbrXlIQqaruOHVmVHZl5npmqNWrTFawpVZDVZUPewtZ02bU1A9v2vOFojoZt4mlh2cGVav08G5iUnc5Pi4gfkoeWZVfTVWYXs2Ryzw6axU2tjaWskBUywlwmKzSFQlHMw890bi73mu8YGKJl2XYa2NrVFCpoOHK7Q92FOfi/IObFPOITjaCucAIktKqr63hXs7Fawbpup5oR3lvAkuLAqNNNpoD4iK9X0fG7sGjJne2m5ug4rfuCaWEFJupYba/gvVXLm79mZxm0zW3NcrpVuZu6rnM2tlY7ZDbSuUqoahpOSceWc64Di4pVWHNQSI7lYsSPUIZOVc1W4LNmuFiVNmXdjjrFlGjDtHbsjqzgFTiwPKljz9BNWYWd5Wi2oylho0MKtGaZHagRGi+buroAtXrGCYqg5poBU0yaLZvmTti7JCWie4DuBljTtuz45kNy1Ng291YNvdtwW7ZiaS2sVsu+daIOkZPneVdc2zHb0ItQhJgsIlFVvl7nu/AfnLdBJapiRWvL+poOU2lLOagrJkAl1zE3Nadi6m7bsP2eDUjRBoyriS8H4wzKaBWW2CBTbxo1w7dnk52oijusm3tBm8MKOhURcclW/EUfVgwaV0HmL+Kwhq4LGeWCpkM6iK5IRBrfG41tjJ3EjcE0iES+BZJgpHJ3xW234JC14KTt0lZtxId6BLsVdjz0SxIgaWToT1MQivQH+hGo0byhjrbzlQiai7QliTOIHxAhGJNe1mVjB6QbmrO9UvLHkqBBbAZG2g/rEJzfji53qTiYpagM1QxFd1XMwkLN2KRblPSNLepINRoSLcNJl5BsdJvdDoRhWys68OHMFCTmou1YkPqnJMV0DcfqkviBeM/0aT622zJoA7I+ts+mhf/oAnF0F1xDqZjq+K2pbHbOGZozfg9N12JBcXwXOnskPrp2FZNIQ0P/2P5KmjHZVirztoHbpqEp4882TDLpvXqMgdj+qRrbA7PzNba9DtmdJT9y1sd2swAXId2laqZk26ai0c3qHQ814s+PODJVvCm7OqCaA4l2K4i9g2JUsncGbaIidM7S/QgoERC2gYQVtT2tAEIQ2ptWzDYR8ACgGw3ER+0JByl43thalo0tF0gjiCuD8iD+kizZtGTDJsMJwGIgFCcbIT9OMeCRWPBadelGYMHLBC3iB+xQE7c7piXrdZgYbcHbdh41AZDUZWfbK0Fu07HiTzIfugZe8Z75HX+aGU1SbBjkwHthckBIjchYGHOHNqEMkVHW4VjqFVnXWhaLqn4qT9LBgoWI6MdfMriUuOivATx3QfY9i7sExsOCJ6dbVvQVbAOTQCo11mfmsjOFXAHIhpQRHfGiZdo2VzXbmOAeB0ynuorDnVisrp2EtEcnxUs8Y9hHLdGCH8tpc69Cn+KSuAEwxZYGqWLYMNCEDtKrLkQfbOndiC0b0bKpgGnvk3/33nj90a3bDx983b+y37ty8OTgOvTxycENNipmhppyS8e0N83y3JyQg1QfihCZPZ4SMBkklV28SME3KCPvQY0WKvO1yuJymQaMQOi7s5zBk2fArumGxQbrPm2IrhnvLzUzkZp+APLKMW0kB0nkmWwXx62j+lGObC4e7X/9aP/OSG9vwkKYEguFQkbIPZW1soIoZsTsCNZajgV5YjyTEWYz2WzEeMAGrbMIH8xTTZVyIjw8i0B1QbBWg32bZDSo8mpqylv8gB8TVRj/BFsgWvaVdNc34VwEanYOIgU2if1//fnw7vsxK292PUm8Fugc5RTSGO8XaNUr602usXpuvTLPNecbZJ+Euogdq/wIY6/14CRFN01w0k5xkMAhYXFTddk6xf3eNfAproE7pzh4CpqKnMPYlkuSsuaeqeLBHkNYcjsszkQcQmmCZRhwkjwSgg7V0blNij6hNsHDC0p3vkhy8MZSDQFWWq+XuZYRbFMqQzENE0X0XhM3rz588J+HDx70f3i3d/9qrAavneAyALY9HK5oMTgFEAG9/DIgQRsNOp87wqVIPvGE5MFpzdQMx5Zms/SZySshcBVJbfRvVGtDiqMV0/kC+YAELcn2/GXHO+fSCuLjAuhnR4bsaobPmoGAhfRwXh9/9tf+J/f6H/xweO3b3pvf9N764NH+7cPv/84OYf/9H/o3v/eC/mBeoH0hT7AM+jh6K6Jw5HByJFdzv155jzNMhwPE4FwaoH698lGkMtJRCiNhzYBwQUfiXRgyjToTPy7SlaAPMb/AhSX8CsloucDCy2lmR1PCRl7LkKrI6aOKE7VmxrUxZwI9QT4fMA6dx/XzXFiGXTstZMWsp2W9IUNoyXZk6hd1syXrnK+gFw4DJjGvox1CW9re4vJqubQcmrBOrFoqtsg2ZB9QzfYh0t9eEQloAe4UVyf3QkNmwyrkf4pEL967YNksqSTwJV9HxCxQxbUsBkSGdz3fcDsAvP5l3Gg9vaCMMO4K49Eo9YblWjWuh3JEC7kwriYCqqfhyFOx0FSzyV0OQ9YVMjVhEXSxS02YDu8GnsHWrgbLwJNYM29ZppUYcEKNb1YHWoYowoczHtjwpElG1mq4Vr7AD3LPh7BnReF0jLAr5SJXUnfJVx52kVuDgbIbkWG2HmV5BFUvjUvVQ4ZJVN3AbU02DFfWR4J1pfzk4OPDez/1v/ult/9j/9Pbvev/ePT2NRA+vP8t5J0JXT8vup4DtM6PQ9e5/wldC7OFp9O1ZzSh63HpeknWNzNdLANLBhQMAHxcpj5GdaNJeik1SSd6HEnSIyLOODB9883ez/fG5Om1s+tcO5Gnfc0Inn700S8P71/r/XSvd/tB/4O7vc++6t38vH/31jOCtTgarMVLkTQyDNb5CVhPwPrlAmtxAtYvMlgPBJwXFqyB/OdiYH2iWjm5ZMJBOUv+aJTWuROVbcg0J7l17MiazpVNQyUgbQEsFrm6pha5pbPcsmbscKUiJ5ymKCQIhSKXm84Lv0tC8uffxhEwX50dE+aHDJNgvgrdG0XxTw6u965+2r/zOYvgTw5uPP7qo/79u48/+bF36/velQe96/cJ0u//1P/bAWX7O48/vEdv0T/2LN/7pf/2lyUoh2OEQmQiJ88Az/oMAHM6mxGA2Gee9gwgFMgaCPnxngEKGRFCYuE4zwBz4zwDzE2eAdI8A9CDeoqbmuXM8FdMjgH/aeoZTf3V1NSf6HEk9Q+GpjFwv//hl2Oy/tLZahLoU/EIyod41nv9T8/I9NnRTJ+9FMlgw0wvCvm5CdVPqP6lovrshOpfZKofCDkvLNXPCuSrwgjVb6zVKE5D6OpyJQsiiE5uwxdME9B64XyRO4+3ityihbHBrWHZTqL29HUcQeUb+TGpfMgwico3MN4ZieX9Gz/33nmXUXf/rWsQ6gDUYTDA5xTC9w+/utp7/43ee1cJh39xm31YOE+u5G99d/jOp0T82V8O//nGBMGfI4KLwjjX8OQOPiPO/Na/5JLLjfFLLsxoguDjIjg7lVwLw3k1SJaWHa4Be8NS5W56EE9f22gc30iN44keR+L4UEwa5/r93W/G5HE4QjPkemD2jEjz9BCZDxiMYPTR1aRH9dxoVM9diqSlBFQ/Pbl/n5D6y0XquZeU1L22/+9RfSDk/Cao7n1g7y14IzSrWMdO6hcvfe+6uXtsX1j8tK41e1VXvclM94vzwbSEFUTfPiUbJW1nSpYF6EReVEv9uij5aqCWbvRSTsgLqtBS5GwBC3hTFueUvDCbF7JKPo/VWYBHWil5j4JU0Qa+Jm8hpGsEgDHuHr4xsi4bWylrYxNMHclbFTBT3s0fjexBGS1olu1cIKnS+8QkFwPJRYbPF6QZxsgXWPmilM+fZhKw4KOt8bFu+xHGYW8qm/qy1tZSvnoh+FEoXgnsg06HAWbaFYWst4IvA/5GaoB43foDZDT2rlKa2tixgjAf+Pt1NdxW6up433kN9PSbrGN5z6uAZsf3pu/9avozdICy13GrqBm2trXtpF3XbKGQw3mczWQ3FSUzA4UM5ONWRpU3C8CtmzmVBPmgckgPGt5L2QhJKprtynp6P37gH26Q/gtdV6lO8UEAAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -428,7 +428,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>(DC)Hong Kong Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
+          <t>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -643,7 +643,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -702,7 +702,7 @@
         <v>41781</v>
       </c>
       <c r="D14" s="5">
-        <v>41781</v>
+        <v>43778</v>
       </c>
       <c r="E14" s="5">
         <v>41781</v>
@@ -816,13 +816,13 @@
         <v>0.8340905475631604</v>
       </c>
       <c r="C21" s="2">
-        <v>-1.268580586263763</v>
+        <v>-1.268580586263762</v>
       </c>
       <c r="D21" s="2">
-        <v>2.931072119614401</v>
+        <v>2.931072119614392</v>
       </c>
       <c r="E21" s="2">
-        <v>1.8060927885682</v>
+        <v>1.806092788568199</v>
       </c>
     </row>
     <row r="22">
@@ -8016,4 +8016,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>668</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Gross Domestic Product (GDP)</Name>
+          <DisplayName>Gross Domestic Product (GDP)</DisplayName>
+          <SeriesId>310911001</SeriesId>
+          <Code>SR4824939</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>668</EndRow>
+          <EndCol>3</EndCol>
+          <Name>CB: Advances: Personal</Name>
+          <DisplayName>CB: Advances: Personal</DisplayName>
+          <SeriesId>310905901</SeriesId>
+          <Code>SR4825107</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>668</EndRow>
+          <EndCol>4</EndCol>
+          <Name>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</Name>
+          <DisplayName>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</DisplayName>
+          <SeriesId>310905801</SeriesId>
+          <Code>SR4824938</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>5</InitCol>
+          <EndRow>668</EndRow>
+          <EndCol>5</EndCol>
+          <Name>WPI: Primary Articles: Food: FV: Veg: Green Peas</Name>
+          <DisplayName>WPI: Primary Articles: Food: FV: Veg: Green Peas</DisplayName>
+          <SeriesId>310913301</SeriesId>
+          <Code>SR4825052</Code>
+          <Order>3</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{005CA893-8588-4CC5-A7D4-A903D2452E94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_138.xlsx
+++ b/Testdata/TC_138.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8UEAAB+LCAAAAAAAAAPtnGtvE1cagP/KKNJKIOHMjJ2Y2DpM5UsuXuIkjQ2BfkHjmZNkNuMZ71wS/A20aoFuadUtbdXbstuql61K6UpsS0m2+18qbMIn/sK+55y52uPgCXQFK1cp+LyXcz/v+8xxBvTK5bbO7WLL1kzjzJQ4LUxx2FBMVTO2zky5zmZGzE+9IqH5ywrW12RLbmMHjDnwMuziZVs7M7XtOJ0iz+/t7U3v5aZNa4vPCoLIX6gvN5Rt3JYzmmE7sqHgqcBLfbrXlIQqaruOHVmVHZl5npmqNWrTFawpVZDVZUPewtZ02bU1A9v2vOFojoZt4mlh2cGVav08G5iUnc5Pi4gfkoeWZVfTVWYXs2Ryzw6axU2tjaWskBUywlwmKzSFQlHMw890bi73mu8YGKJl2XYa2NrVFCpoOHK7Q92FOfi/IObFPOITjaCucAIktKqr63hXs7Fawbpup5oR3lvAkuLAqNNNpoD4iK9X0fG7sGjJne2m5ug4rfuCaWEFJupYba/gvVXLm79mZxm0zW3NcrpVuZu6rnM2tlY7ZDbSuUqoahpOSceWc64Di4pVWHNQSI7lYsSPUIZOVc1W4LNmuFiVNmXdjjrFlGjDtHbsjqzgFTiwPKljz9BNWYWd5Wi2oylho0MKtGaZHagRGi+buroAtXrGCYqg5poBU0yaLZvmTti7JCWie4DuBljTtuz45kNy1Ng291YNvdtwW7ZiaS2sVsu+daIOkZPneVdc2zHb0ItQhJgsIlFVvl7nu/AfnLdBJapiRWvL+poOU2lLOagrJkAl1zE3Nadi6m7bsP2eDUjRBoyriS8H4wzKaBWW2CBTbxo1w7dnk52oijusm3tBm8MKOhURcclW/EUfVgwaV0HmL+Kwhq4LGeWCpkM6iK5IRBrfG41tjJ3EjcE0iES+BZJgpHJ3xW234JC14KTt0lZtxId6BLsVdjz0SxIgaWToT1MQivQH+hGo0byhjrbzlQiai7QliTOIHxAhGJNe1mVjB6QbmrO9UvLHkqBBbAZG2g/rEJzfji53qTiYpagM1QxFd1XMwkLN2KRblPSNLepINRoSLcNJl5BsdJvdDoRhWys68OHMFCTmou1YkPqnJMV0DcfqkviBeM/0aT622zJoA7I+ts+mhf/oAnF0F1xDqZjq+K2pbHbOGZozfg9N12JBcXwXOnskPrp2FZNIQ0P/2P5KmjHZVirztoHbpqEp4882TDLpvXqMgdj+qRrbA7PzNba9DtmdJT9y1sd2swAXId2laqZk26ai0c3qHQ814s+PODJVvCm7OqCaA4l2K4i9g2JUsncGbaIidM7S/QgoERC2gYQVtT2tAEIQ2ptWzDYR8ACgGw3ER+0JByl43thalo0tF0gjiCuD8iD+kizZtGTDJsMJwGIgFCcbIT9OMeCRWPBadelGYMHLBC3iB+xQE7c7piXrdZgYbcHbdh41AZDUZWfbK0Fu07HiTzIfugZe8Z75HX+aGU1SbBjkwHthckBIjchYGHOHNqEMkVHW4VjqFVnXWhaLqn4qT9LBgoWI6MdfMriUuOivATx3QfY9i7sExsOCJ6dbVvQVbAOTQCo11mfmsjOFXAHIhpQRHfGiZdo2VzXbmOAeB0ynuorDnVisrp2EtEcnxUs8Y9hHLdGCH8tpc69Cn+KSuAEwxZYGqWLYMNCEDtKrLkQfbOndiC0b0bKpgGnvk3/33nj90a3bDx983b+y37ty8OTgOvTxycENNipmhppyS8e0N83y3JyQg1QfihCZPZ4SMBkklV28SME3KCPvQY0WKvO1yuJymQaMQOi7s5zBk2fArumGxQbrPm2IrhnvLzUzkZp+APLKMW0kB0nkmWwXx62j+lGObC4e7X/9aP/OSG9vwkKYEguFQkbIPZW1soIoZsTsCNZajgV5YjyTEWYz2WzEeMAGrbMIH8xTTZVyIjw8i0B1QbBWg32bZDSo8mpqylv8gB8TVRj/BFsgWvaVdNc34VwEanYOIgU2if1//fnw7vsxK292PUm8Fugc5RTSGO8XaNUr602usXpuvTLPNecbZJ+Euogdq/wIY6/14CRFN01w0k5xkMAhYXFTddk6xf3eNfAproE7pzh4CpqKnMPYlkuSsuaeqeLBHkNYcjsszkQcQmmCZRhwkjwSgg7V0blNij6hNsHDC0p3vkhy8MZSDQFWWq+XuZYRbFMqQzENE0X0XhM3rz588J+HDx70f3i3d/9qrAavneAyALY9HK5oMTgFEAG9/DIgQRsNOp87wqVIPvGE5MFpzdQMx5Zms/SZySshcBVJbfRvVGtDiqMV0/kC+YAELcn2/GXHO+fSCuLjAuhnR4bsaobPmoGAhfRwXh9/9tf+J/f6H/xweO3b3pvf9N764NH+7cPv/84OYf/9H/o3v/eC/mBeoH0hT7AM+jh6K6Jw5HByJFdzv155jzNMhwPE4FwaoH698lGkMtJRCiNhzYBwQUfiXRgyjToTPy7SlaAPMb/AhSX8CsloucDCy2lmR1PCRl7LkKrI6aOKE7VmxrUxZwI9QT4fMA6dx/XzXFiGXTstZMWsp2W9IUNoyXZk6hd1syXrnK+gFw4DJjGvox1CW9re4vJqubQcmrBOrFoqtsg2ZB9QzfYh0t9eEQloAe4UVyf3QkNmwyrkf4pEL967YNksqSTwJV9HxCxQxbUsBkSGdz3fcDsAvP5l3Gg9vaCMMO4K49Eo9YblWjWuh3JEC7kwriYCqqfhyFOx0FSzyV0OQ9YVMjVhEXSxS02YDu8GnsHWrgbLwJNYM29ZppUYcEKNb1YHWoYowoczHtjwpElG1mq4Vr7AD3LPh7BnReF0jLAr5SJXUnfJVx52kVuDgbIbkWG2HmV5BFUvjUvVQ4ZJVN3AbU02DFfWR4J1pfzk4OPDez/1v/ult/9j/9Pbvev/ePT2NRA+vP8t5J0JXT8vup4DtM6PQ9e5/wldC7OFp9O1ZzSh63HpeknWNzNdLANLBhQMAHxcpj5GdaNJeik1SSd6HEnSIyLOODB9883ez/fG5Om1s+tcO5Gnfc0Inn700S8P71/r/XSvd/tB/4O7vc++6t38vH/31jOCtTgarMVLkTQyDNb5CVhPwPrlAmtxAtYvMlgPBJwXFqyB/OdiYH2iWjm5ZMJBOUv+aJTWuROVbcg0J7l17MiazpVNQyUgbQEsFrm6pha5pbPcsmbscKUiJ5ymKCQIhSKXm84Lv0tC8uffxhEwX50dE+aHDJNgvgrdG0XxTw6u965+2r/zOYvgTw5uPP7qo/79u48/+bF36/velQe96/cJ0u//1P/bAWX7O48/vEdv0T/2LN/7pf/2lyUoh2OEQmQiJ88Az/oMAHM6mxGA2Gee9gwgFMgaCPnxngEKGRFCYuE4zwBz4zwDzE2eAdI8A9CDeoqbmuXM8FdMjgH/aeoZTf3V1NSf6HEk9Q+GpjFwv//hl2Oy/tLZahLoU/EIyod41nv9T8/I9NnRTJ+9FMlgw0wvCvm5CdVPqP6lovrshOpfZKofCDkvLNXPCuSrwgjVb6zVKE5D6OpyJQsiiE5uwxdME9B64XyRO4+3ityihbHBrWHZTqL29HUcQeUb+TGpfMgwico3MN4ZieX9Gz/33nmXUXf/rWsQ6gDUYTDA5xTC9w+/utp7/43ee1cJh39xm31YOE+u5G99d/jOp0T82V8O//nGBMGfI4KLwjjX8OQOPiPO/Na/5JLLjfFLLsxoguDjIjg7lVwLw3k1SJaWHa4Be8NS5W56EE9f22gc30iN44keR+L4UEwa5/r93W/G5HE4QjPkemD2jEjz9BCZDxiMYPTR1aRH9dxoVM9diqSlBFQ/Pbl/n5D6y0XquZeU1L22/+9RfSDk/Cao7n1g7y14IzSrWMdO6hcvfe+6uXtsX1j8tK41e1VXvclM94vzwbSEFUTfPiUbJW1nSpYF6EReVEv9uij5aqCWbvRSTsgLqtBS5GwBC3hTFueUvDCbF7JKPo/VWYBHWil5j4JU0Qa+Jm8hpGsEgDHuHr4xsi4bWylrYxNMHclbFTBT3s0fjexBGS1olu1cIKnS+8QkFwPJRYbPF6QZxsgXWPmilM+fZhKw4KOt8bFu+xHGYW8qm/qy1tZSvnoh+FEoXgnsg06HAWbaFYWst4IvA/5GaoB43foDZDT2rlKa2tixgjAf+Pt1NdxW6up433kN9PSbrGN5z6uAZsf3pu/9avozdICy13GrqBm2trXtpF3XbKGQw3mczWQ3FSUzA4UM5ONWRpU3C8CtmzmVBPmgckgPGt5L2QhJKprtynp6P37gH26Q/gtdV6lO8UEAAA==</t>
+          <t>g0AAAB+LCAAAAAAAAAPtnOtvG1UWwP+VUaSVQKozM3bixNbtID/y8DZOQuw2LV+q8cxNMpvxjHceSf2t1QpaWApiKSBe210QsIsoBakLpQnd/wXVbvqp/8Kee+887XHqScuKIqMKcs/jPs6995zfTDOgly61dW4PW7ZmGqenxGlhisOGYqqasX16ynW2MmJ+6iUJLVxSsL4uW3IbO2DMgZdhFy/Z2umpHcfpFHl+f39/ej83bVrbfFYQRP58faWh7OC2nNEM25ENBU8FXuqTvaYkVFHbdezIquzIzPP0VK1Rm65gTamCrC4b8ja2psuurRnYthcMR3M0bBNPC8sOrlTr59jCpOx0flpE/JA8tCy7mq4yu5glk3t2MCxuam0sZQVxPiOKmWyhKcwVxdlirjA9k8u94jsGhmhFtp0GtvY0hQoajtzuUHdRzBaEOXE2V0B8ohH0FQZAQmu6uoH3NBurFazrdqqI8N4GlhQHVp0umALiI75eRyefwpIld3aamqPjtO6LpoUVCNSJxl7F+2uWF79mZwW0zR3NcrpVuZu6r7M2ttY6JBrpXCVUNQ2npGPLOduBTcUq7DkoJMdyMeJHKEOnqmYr8LNmuFiVtmTdjjrFlGjTtHbtjqzgVbiwPOlj39BNWYWT5Wi2oynhoEMKtG6ZHegRBi+buroIvXrGCYqg55oBISbDlk1zN5xdkhLRM0BPA+xpW3Z88yE5auyY+2uG3m24LVuxtBZWq2XfOlGHyM3zvCuu7ZhtmEUoQkwWkagqX6/zXfgH7tugElWxorVlfV2HUNpSDvqKCVDJdcwtzamYuts2bH9mA1K0Cetq4kvBOoM2WoMtNkjoTaNm+PYs2ImquMOGuR+MOaygoYiIS7bib/qwYtC4CjJ/E4c1dF/IKhc1HcpBdEci0vjZaOxg7CQeDKZBJPMtkgIjlburbrsFl6wFN22PjmojPtQjOK1w4mFekgBFI0P/NAWhSP/APAI1WjDU0Xa+EsFwkbEkcQbxAyIEa9LLumzsgnRTc3ZWS/5aEjSIRWCk/bAOwf3t6HKXioMoRWWoZii6q2KWFmrGFj2iZG5sU0eq0ZBoBW66hGSj2+x2IA3bWtGBH05PQWEu2o4FpX9KUkzXcKwuyR+I90yf5GO7LYMOIOtj+2xZ+M8uEEd30TWUiqmOP5rKonPW0JzxZ2i6FkuK47vQ6JH86NpVTDINTf1j+ytp1mRbqczbBm6bhqaMH20IMpm9eoKF2P6tGtsDs/s1tr0O1Z0VP3LXx3azABeh3KUapmTbpqLRw+pdDzXiz4+4MlW8Jbs6oJoDhXY7yL2DYlSydwdtoiJ01tL9DCgRELaBhBW1Pa0AQhDam1bMNhHwAKCbDcRH7QkHKXjB2F6RjW0XSCPIK4PyIP+SKtm0ZMMmywnAYiAVJxshP08x4JFY8lpz6UFgycsELeIH7FATtzumJet1CIy26B07j5oASOqys+O1oLbpWPGDzIeugVd8Zv7En2RGixRbBrnwXpocEFIjshbG3KFNKENklXW4lnpF1rWWxbKqX8qTdLBhISL6+ZcsLiUu+nsAz11Qfc/gLoHxsOHJ6ZEVfQU7wCSRSo2NmfnsTIE8YNA2oiteskzb5qpmGxPc44DpVFdxuBeWqusvQtmjQfEKzxj2UUu06OdyOtzLMKe4JG4ATLGtQakYNgw0oYP0sgvZB1t6N2LLVrRiKmDa+/jn3muvPrxx88G9r/qXD3qXDx8fXoM5Pj58na2KmaGm3NIxnU2zPD8v5KDUhyJEosdTAiaLpLILFyj4Bm3kPajRRmWhVllaKdOEEQh9d1YzePIM2DXdsNlg06cD0T3j/a1mJlLTT0BeO6aN1CCJPJPt4bh1VD/KkcXi4cFXDw9ujfT2AhbClFgoFDJC7omsBU+3YkbMjmCtlViSJ8YzGWE2k81GjAds0AbL8EGcaqqUE4WCKALVBclaDc5tktGgyuupKW/zA35MVGH8ExyBaNtX0lPfhHsRqNk9iDRYEPv/+evR7fdiVl50PUm8F5gc5RQyGO83aNerG02usXZ2o7LANRca5JyEuogd6/wYY2/04CZFD01w005xUMChYHFTddk6xf3RNfAproE7pzh4CpqK3MPYkUuSsuGequPBGUNacjssz0QcQmmCZZhwkjwSkg7V0dgmZZ9Qm+DhJaVbnyc5eGuphgArbdTLXMsIjimVoZiGiSJ6b4jrVx7c+++De/f6373Tu3sl1oM3TvAyAI49XK5oM7gFkAG9+jIgQZsNGs9d4WKknnhC8uC0bmqGY0uzWfrM5LUQuIqkN/pfVGtDiaMd03iBfECClmV74ZLj3XNpFfFxAcyzI0N1NcNnzUDAUnoY10ef/r3/8Z3++98dXf2698a/em++//Dg5tG3/2SXsP/ed/3r33pJf7Au0LmQJ1gGfRx9K6Jw5HJypFZzv1x+lzNMhwPE4FyaoH65/GGkMzJRCiNhz4BwwUTiUxgyjToTPy4ylWAOMb/AhRX8CqloucDCq2lmR1PCQV7JkK7I7aOKF2rNjGtjzgR6gno+YBw6j+vnubAKuz4nZMWsp2WzIUtoyXYk9Eu62ZJ1zlfQFw4DJjGv4x1CWzre0spaubQSmrBJrFkqtsgxZD8gHyFJhanZfss/ahEJaAH0FFcn74iGzIZVQc+RTMZ7L1u2SipJgsmvJmIWqOJaFoMjw3tV33A7AL/+i7nRevqyMsK7q4xNowQctmvVuB7aES3UxbiaCKiepiZPxdJUzSbvdRi+rpLQhE3QxV5wQji8t/EMvPY02BKe5J0FyzKtxOQTanyzOpAzZBQ+jHhgQ/eUUbYa7pUv8BPes6HtWVGYi9F2pVzkSuoe+esPu8itw0LZ25Fhzh5leQxhL49L2EOGSYTdwG1NNgxX1kdCdqX8+PCjozs/9r+53zv4of/Jzd61fz986yoIH9z9GmrQhLSfFWnPA2bnxyHt3P+FtIXZwpNJ2zOakPa4pL0s61uZLpaBKwMiBhg+KV+foLvRVL2cmqoTPY6l6hEZZxywvv5G76c7Y7L1+pkNrp3I1r5mBFs//PD+g7tXez/e6d2813//du/TL3vXP+vfvvGUkC2OhmzxYqSMDEN2fgLZE8h+viBbnED28wLZA8nnNwvZ8BQwH4PsF6qVF5dNuDRnyL82sCNrOlc2DZWAtAWwWOTqmlrkls9wK5qxy5WKnDBHUUgQCkUuN50X/pCE5M+m32MAvjo7JsAPGSYBfBWmN4rcHx9e6135pH/rM5a1Hx++/ujLD/t3bz/6+IfejW97l+/1rt0lGH/wY/8fh5Tnbz364A59i/6RZ/nu/f5bX5SgHa4RGpHgTbj/abkfYjqbEYDSZ57E/UKB7IGQ/9W5f34c7p+fcH8a7qcX9RQ3NcuZ4a+YnAD40/QzmvSrqUk/0eNY0h9MTWMgfv+DL8bk++Uz1SS4p+IRZA/5rPfqX56S47OjOT57MVKphjleFPLzE5KfkPxzRfLZCck/LyQ/kH5+syQ/K5C/NoyQ/OZ6jaI1pLEuV7Igm+jkbfiiaQJmL54rcufwdpFbsjA2uHUs20nUnr6PYwh9Mz8moQ8ZJhH6Jsa7IxG9//pPvbffYQTef/MqpD2AdlgMsDoF8oOjL6/03nut9+4VwuSf32Q/LJ4jr+RvfHP09idE/Onfjr5/bYLjzxDHRWGc1/DkHXxGnPm1f+EllxvjF16Y0QTHx8Vxdiu5Fob7apCKLTtcA86Gpcrd9FCevrfRaL6ZGs0TPY5F86GcNAabP7r8/ZhsDldohrwqmD0t0jo9ROkDBiN4fXQ36bE9NxrbcxcjZSkB2+cm798n1P58UXvud0Dt3ti/e2wfSD+/CrZ7P7DvGbwVmlWsYyf1B5m+d93cO7EvbH5a15q9pqteMNP9Qn0QlrCD6Fep5KCknUzJsgCjyAdsqT8jJX9lUEu3eknZyuYL87NzW/MFoZXLygVZaBW2WnheKAiFLNx11in5voJ00QbWJl8npBsE4DHuHn5JsiEb2yl7YwGmjuRrC4gUiTM5wpplO+dJnfR+YpILgeQCY+fz0gwD5POsfUHK5+eYBCz4aPd8bJ5+SnHYJ8umvqK1tZTfYAh+2ol3Ahvf6TC6TLuFUPJW8SVg30gPkKxbf4Jyxj5aStMbu0eQ4wN/8qGgrW3vOKnPlqJkW4KSzczkcD4zI8tzGRmLW/AAlJvLKzNzM7n8LPnM0OscEpqG91MOwvsbFv6vBKT/AU9rdtGDQAAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -428,7 +428,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
+          <t>(DC)Hong Kong Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -643,7 +643,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -702,7 +702,7 @@
         <v>41781</v>
       </c>
       <c r="D14" s="5">
-        <v>43778</v>
+        <v>41781</v>
       </c>
       <c r="E14" s="5">
         <v>41781</v>
@@ -816,13 +816,13 @@
         <v>0.8340905475631604</v>
       </c>
       <c r="C21" s="2">
-        <v>-1.268580586263762</v>
+        <v>-1.268580586263763</v>
       </c>
       <c r="D21" s="2">
-        <v>2.931072119614392</v>
+        <v>2.931072119614401</v>
       </c>
       <c r="E21" s="2">
-        <v>1.806092788568199</v>
+        <v>1.8060927885682</v>
       </c>
     </row>
     <row r="22">
@@ -8016,70 +8016,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>668</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Gross Domestic Product (GDP)</Name>
-          <DisplayName>Gross Domestic Product (GDP)</DisplayName>
-          <SeriesId>310911001</SeriesId>
-          <Code>SR4824939</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>668</EndRow>
-          <EndCol>3</EndCol>
-          <Name>CB: Advances: Personal</Name>
-          <DisplayName>CB: Advances: Personal</DisplayName>
-          <SeriesId>310905901</SeriesId>
-          <Code>SR4825107</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>668</EndRow>
-          <EndCol>4</EndCol>
-          <Name>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</Name>
-          <DisplayName>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</DisplayName>
-          <SeriesId>310905801</SeriesId>
-          <Code>SR4824938</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>5</InitCol>
-          <EndRow>668</EndRow>
-          <EndCol>5</EndCol>
-          <Name>WPI: Primary Articles: Food: FV: Veg: Green Peas</Name>
-          <DisplayName>WPI: Primary Articles: Food: FV: Veg: Green Peas</DisplayName>
-          <SeriesId>310913301</SeriesId>
-          <Code>SR4825052</Code>
-          <Order>3</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{005CA893-8588-4CC5-A7D4-A903D2452E94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>